--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FCE14A-90C4-4AE9-AB1F-4C535973255C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1676D8-2F39-47B1-A415-4375EF014AC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Print all permutations of a given string</t>
   </si>
@@ -52,6 +52,51 @@
   </si>
   <si>
     <t>current sum, maxSum, array[i] may be max</t>
+  </si>
+  <si>
+    <t>Size of the longest substring with all unique characters</t>
+  </si>
+  <si>
+    <t>calculate(String s)</t>
+  </si>
+  <si>
+    <t>sliding windows, HashSet&lt;Character&gt;, add, remove, j-i</t>
+  </si>
+  <si>
+    <t>Find best average score</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>[["Jake":650],["Mike":660],["Steve":620],["Jake":700],["Mike":650]] -&gt; Jake:675</t>
+  </si>
+  <si>
+    <t>"abcdebfc" -&gt; 5; "aqwebbtapbiu" -&gt; 6</t>
+  </si>
+  <si>
+    <t>[1, -3, 3, -4, 10, -1, 2, -3, -5] -&gt; 11</t>
+  </si>
+  <si>
+    <t>abc -&gt; abc, acb, bac, bca, cab, cba</t>
+  </si>
+  <si>
+    <t>Find all elements in array with a given difference</t>
+  </si>
+  <si>
+    <t>[1, 7, 5, 9, 2, 12, 3] -&gt; 1,3; 5,6; 7,9; 3,5</t>
+  </si>
+  <si>
+    <t>calc(Object[][] scores) or calc(Set&lt;Pair&lt;String, Integer&gt;&gt; scores)</t>
+  </si>
+  <si>
+    <t>IntStream, avg, max</t>
+  </si>
+  <si>
+    <t>find(int[] array, int difference)</t>
+  </si>
+  <si>
+    <t>sort, iterate</t>
   </si>
 </sst>
 </file>
@@ -369,49 +414,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34.36328125" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="45.54296875" customWidth="1"/>
+    <col min="3" max="3" width="32.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1676D8-2F39-47B1-A415-4375EF014AC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF1A1BC-718F-4783-A22A-23476B429B06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Print all permutations of a given string</t>
   </si>
@@ -97,19 +97,125 @@
   </si>
   <si>
     <t>sort, iterate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Given two sequences </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>pushed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>popped</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>with distinct values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if and only if this could have been the result of a sequence of push and pop operations on an initially empty stack.</t>
+    </r>
+  </si>
+  <si>
+    <t>Input: pushed = [1,2,3,4,5], popped = [4,5,3,2,1]
+Output: true
+Explanation: We might do the following sequence:
+push(1), push(2), push(3), push(4), pop() -&gt; 4,
+push(5), pop() -&gt; 5, pop() -&gt; 3, pop() -&gt; 2, pop() -&gt; 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> boolean validateStackSequences(int[] pushed, int[] popped)</t>
+  </si>
+  <si>
+    <t>tempStack, check if empty at the end</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,8 +238,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,20 +523,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="34.36328125" customWidth="1"/>
     <col min="2" max="2" width="45.54296875" customWidth="1"/>
     <col min="3" max="3" width="32.6328125" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -441,7 +551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -455,7 +565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -469,7 +579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -483,7 +593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -497,7 +607,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -509,6 +619,20 @@
       </c>
       <c r="D6" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="72.5">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Algorithms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF1A1BC-718F-4783-A22A-23476B429B06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Print all permutations of a given string</t>
   </si>
@@ -191,12 +190,27 @@
   <si>
     <t>tempStack, check if empty at the end</t>
   </si>
+  <si>
+    <t>delimeter null</t>
+  </si>
+  <si>
+    <t>void(Node root)</t>
+  </si>
+  <si>
+    <t>Link horizontal nodes in the tree</t>
+  </si>
+  <si>
+    <t>depth first, breadth first</t>
+  </si>
+  <si>
+    <t>Traverse a tree (2 ways)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,7 +259,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -522,22 +536,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.36328125" customWidth="1"/>
-    <col min="2" max="2" width="45.54296875" customWidth="1"/>
-    <col min="3" max="3" width="32.6328125" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" customWidth="1"/>
+    <col min="1" max="1" width="54.140625" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" customWidth="1"/>
+    <col min="3" max="3" width="59" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -551,7 +565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -565,7 +579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -579,7 +593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -593,7 +607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -607,7 +621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -621,7 +635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="72.5">
+    <row r="7" spans="1:4" ht="105.75" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -633,6 +647,28 @@
       </c>
       <c r="D7" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Print all permutations of a given string</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>calculate(int[] array)</t>
-  </si>
-  <si>
-    <t>current sum, maxSum, array[i] may be max</t>
   </si>
   <si>
     <t>Size of the longest substring with all unique characters</t>
@@ -204,6 +201,55 @@
   </si>
   <si>
     <t>Traverse a tree (2 ways)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URLify - modify input char[] so that all spaces were substituted for %20. The buffer for additional symbols is given as spaces at the end of the char[]. </t>
+  </si>
+  <si>
+    <t>['m', 'r', ' ', 's', 'm', 'i', 't', 'h', ' ', ' '] , 8 true length -&gt; ['m', 'r', '%', '2', '0', 's', 'm', 'i', 't', 'h']</t>
+  </si>
+  <si>
+    <t>char[] perform(char[] chars, int trueLength)</t>
+  </si>
+  <si>
+    <t>count spaces, count length of the output, iterate char[] backwards</t>
+  </si>
+  <si>
+    <t>Compress string</t>
+  </si>
+  <si>
+    <t>aaabbc -&gt; a3b2c1</t>
+  </si>
+  <si>
+    <t>String compress(String input)</t>
+  </si>
+  <si>
+    <t>1 loop, 1 if</t>
+  </si>
+  <si>
+    <t>Zero Matrix: Write an algorithm such that if an element in an MxN matrix is 0, its entire row and column are set to 0.</t>
+  </si>
+  <si>
+    <t>[1,2,3], -&gt; [1,0,3],
+[4,0,5]       [0,0,0]</t>
+  </si>
+  <si>
+    <t>int[][] nullifyMatrix(int[][] matrix)</t>
+  </si>
+  <si>
+    <t>arrays with flags if col or row should be nullified</t>
+  </si>
+  <si>
+    <t>current sum, maxSum, array[i]+currentMax or array[i] is max on each step</t>
+  </si>
+  <si>
+    <t>Given n non-negative integers a1, a2, ..., an , where each represents a point at coordinate (i, ai). n vertical lines are drawn such that the two endpoints of line i is at (i, ai) and (i, 0). Find two lines, which together with x-axis forms a container, such that the container contains the most water. https://leetcode.com/problems/container-with-most-water/</t>
+  </si>
+  <si>
+    <t>array [1,8,6,2,5,4,8,3,7]. In this case, the max area of water the container can contain is 49. a[1] = 8, a[8]=7 -&gt; 7*7=49</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1yzxTXZccip-N7knwg53emdzxcHbePE2ZcVgVvOX4tJs/edit?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -252,11 +298,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -537,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,17 +598,17 @@
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -570,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -584,91 +631,146 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="75.75" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="105.75" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
